--- a/plantillas/Modelos_especiales/Mixtos-plantilla_inventario.xlsx
+++ b/plantillas/Modelos_especiales/Mixtos-plantilla_inventario.xlsx
@@ -60,7 +60,7 @@
     <t xml:space="preserve">010203_SC1</t>
   </si>
   <si>
-    <t xml:space="preserve">ID_arbol</t>
+    <t xml:space="preserve">ID_Arbol</t>
   </si>
   <si>
     <t xml:space="preserve">especie</t>
@@ -104,7 +104,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -125,11 +125,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -180,7 +175,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -205,10 +200,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -218,6 +209,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -232,9 +232,9 @@
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="13.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.71"/>
@@ -414,8 +414,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -430,13 +430,13 @@
   </sheetPr>
   <dimension ref="A1:AH305"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="6.85"/>
@@ -3107,8 +3107,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3127,16 +3127,16 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3144,7 +3144,7 @@
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3183,10 +3183,10 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>